--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,6601 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:40:07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:42:08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16.672</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:46:14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19.696</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:48:17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20.186</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:50:20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:52:24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:54:28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:56:32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:56:33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:58:39</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>19.787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04/23/2021 20:58:39</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:00:43</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>19.547</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:00:44</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:02:53</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15.213</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:02:54</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:04:59</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16.248</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:05:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:07:07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:07:08</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:09:16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>13.698</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:11:26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13.036</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:13:33</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18.412</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:15:41</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:17:49</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14.292</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:19:56</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16.672</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:22:07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13.424</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:24:18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:26:28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>13.711</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:28:38</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14.431</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:30:50</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19.511</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:33:04</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24.142</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:35:14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>19.092</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:37:25</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>19.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:39:37</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22.932</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:41:49</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:41:50</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18.592</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:44:01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21.059</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:44:01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:46:13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:46:14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22.768</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:48:26</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:48:27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>19.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:50:39</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22.652</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:50:39</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>19.531</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:52:50</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15.269</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:52:51</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17.714</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:55:04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15.797</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:55:04</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:57:17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:57:17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>13.958</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/23/2021 21:59:32</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:03:57</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>17.854</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:06:11</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>13.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:08:26</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>19.106</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:10:41</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>22.867</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:12:56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22.684</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:15:11</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>19.494</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:17:28</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>25.473</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:19:43</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>20.615</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:19:44</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22.614</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:21:59</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>15.342</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:22:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:24:16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20.725</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:24:16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:26:31</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20.854</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:26:32</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>11.324</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:28:48</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18.177</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:28:49</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>13.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:31:06</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:31:06</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22.082</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:33:22</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13.924</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:37:52</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:40:07</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>14.682</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:42:21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>15.738</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:44:36</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>21.135</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:46:50</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:51:24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22.054</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:53:39</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>23.267</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:55:54</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20.616</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:58:09</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>19.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04/23/2021 22:58:10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>14.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:00:26</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>14.384</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:00:26</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18.842</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:02:44</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>15.144</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:02:45</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:05:03</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>14.344</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:09:33</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>15.796</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:11:48</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:14:03</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>13.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:16:20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>14.084</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:18:37</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>15.872</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:20:53</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>16.041</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:23:08</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:25:24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:27:40</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>17.548</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:29:56</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:32:13</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>18.704</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:34:30</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:36:46</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>20.995</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:39:08</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:41:28</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>14.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:41:29</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>12.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:43:48</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>14.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:43:49</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>14.288</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:46:09</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:46:10</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>15.112</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:48:32</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:53:12</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>14.354</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:55:32</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04/23/2021 23:57:53</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:02:34</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>18.126</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:04:54</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>20.878</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:07:15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>21.604</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:09:38</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:11:59</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>13.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:12:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:14:22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:14:22</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:16:44</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>15.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:16:45</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>14.236</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:19:10</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>14.566</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:23:55</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:26:18</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:28:41</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>16.107</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:31:04</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>13.792</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:33:28</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>17.207</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:35:53</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:38:18</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>14.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:40:42</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>15.704</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:43:07</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>15.314</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:45:32</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13.844</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:47:59</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>14.164</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:50:26</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>18.338</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:52:51</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>19.476</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>04/24/2021 00:55:17</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13.634</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:00:14</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>14.268</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:02:45</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:02:46</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:05:14</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:05:15</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>14.288</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:07:43</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16.304</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:07:44</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>16.352</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:10:13</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13.598</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:12:42</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:15:11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:17:37</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>22.879</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:20:05</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>18.748</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:22:33</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>16.536</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:25:02</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>18.802</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:27:30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15.894</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:27:31</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:29:59</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>18.281</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:30:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:32:30</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>13.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:32:31</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:35:01</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>13.934</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:35:02</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:37:31</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>16.534</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:37:32</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>14.362</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:40:02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:40:03</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>19.397</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:42:34</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:47:34</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:50:07</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>19.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:52:38</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>20.483</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:55:09</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14.106</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:57:41</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>23.669</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04/24/2021 01:57:42</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>20.016</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:00:14</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>15.214</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:00:14</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>17.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:02:47</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:02:48</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>14.048</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:05:20</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>15.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:05:20</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>14.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:07:53</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:12:57</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>14.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:15:32</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18.556</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:18:21</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>22.614</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:20:57</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:23:32</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13.482</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:26:08</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>13.722</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:28:44</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:28:45</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>67.047</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:31:20</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>14.902</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:31:21</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>15.608</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:33:57</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:33:58</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>29.375</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:36:33</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>13.826</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:36:34</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>14.458</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:39:12</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>12.268</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:44:28</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>18.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:47:05</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>21.164</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:49:44</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>21.946</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:52:22</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>20.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:54:59</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>15.731</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:55:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>14.444</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:57:35</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>13.768</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>04/24/2021 02:57:36</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>15.584</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:00:13</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>13.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:00:14</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>14.444</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:02:56</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>16.072</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:08:12</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>16.681</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:10:50</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>13.802</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:13:27</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16.152</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:16:05</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>13.476</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:18:44</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>18.212</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:21:23</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>18.802</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:24:02</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>18.904</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:26:04</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>20.533</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:26:05</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>19.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:28:07</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>19.949</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:28:07</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:30:10</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:34:13</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>14.434</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:36:15</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:40:18</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>14.884</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:42:20</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>20.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:44:22</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>12.868</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:46:24</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>19.944</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:48:26</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>28.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:50:29</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:50:30</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>17.196</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:52:32</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>18.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:52:33</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>19.358</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:54:34</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:54:35</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:56:37</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>15.513</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:56:38</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:58:40</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>15.514</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>04/24/2021 03:58:41</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>14.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:00:43</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:04:47</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>17.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:06:49</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:08:50</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>16.109</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:10:52</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>14.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:12:54</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>15.518</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:14:56</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>14.145</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:16:58</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>14.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:18:59</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>14.066</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:21:01</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>17.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:23:03</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>14.098</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:25:04</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>14.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:27:06</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>13.768</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:29:08</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>18.644</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:33:11</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>15.614</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:35:13</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>14.164</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:37:15</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>14.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:39:17</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>13.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:41:19</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>14.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:43:21</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>15.821</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:45:22</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:47:25</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>14.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:49:27</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>14.132</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:51:29</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>14.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:53:31</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:55:32</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>15.208</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:57:34</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>13.074</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>04/24/2021 04:59:35</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>15.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:01:37</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>14.272</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:03:39</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>16.022</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:05:41</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:07:43</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>15.467</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:09:44</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>33.903</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:11:46</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>12.918</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:13:48</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:15:50</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>15.034</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:17:52</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>14.566</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:19:53</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>20.944</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:21:55</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:23:57</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>21.952</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:28:02</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>14.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:28:03</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>18.578</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:30:05</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>15.434</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:30:06</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>13.362</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:32:08</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>18.914</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:32:09</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>16.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:34:11</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>16.214</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:34:12</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>14.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:36:14</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>16.562</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:36:15</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>12.704</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:38:18</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:42:20</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>16.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:44:22</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>18.136</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:46:24</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>14.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:48:26</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>17.692</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:50:28</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:52:31</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>18.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:52:32</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>16.898</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:54:34</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>15.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:54:35</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>15.782</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:56:38</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>14.296</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:56:39</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>14.378</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:58:42</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>04/24/2021 05:58:43</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:00:46</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>14.288</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:04:49</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:06:51</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>14.632</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:08:53</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>14.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:10:54</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:12:56</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>20.466</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:14:58</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>23.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:17:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>19.415</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:19:02</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>21.518</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:21:05</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>13.192</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:23:07</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>18.648</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:23:09</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:25:10</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>17.375</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:25:11</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>19.574</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:27:13</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>15.567</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:27:14</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>14.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:29:16</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>16.434</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:29:17</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>13.694</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:31:20</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>14.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:35:23</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:37:25</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>12.686</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:39:27</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>14.878</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:41:29</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>13.152</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:43:31</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:45:32</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>17.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:47:35</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>17.286</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:49:37</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>13.556</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:51:39</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>13.882</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:53:41</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>13.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:55:43</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>13.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:57:45</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>04/24/2021 06:59:46</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:01:48</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>14.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:03:50</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>15.846</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:05:52</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>13.966</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:07:54</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:11:58</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>23.133</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:14:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>20.328</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:16:01</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>13.636</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:18:04</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>13.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:20:07</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>13.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:20:08</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>14.486</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:22:10</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:22:11</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>16.266</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:24:13</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>13.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:24:14</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>15.967</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:26:16</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>13.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:28:18</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>15.798</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:30:20</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>13.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:32:22</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>15.288</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:34:24</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>16.939</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:36:26</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>13.556</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:38:28</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:40:30</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>14.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:42:32</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:44:34</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>16.316</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:46:36</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>16.446</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:48:38</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:50:40</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>15.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:52:42</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>18.657</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:54:43</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>28.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>04/24/2021 07:56:46</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>23.392</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:00:51</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>18.741</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:02:53</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>21.313</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:02:54</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>18.207</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:04:56</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>17.656</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:04:57</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>16.342</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:06:59</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>42.728</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:07:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>14.236</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:09:02</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>15.606</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:09:03</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>14.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:11:06</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>15.082</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:15:10</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>14.601</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:17:12</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>17.685</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:19:14</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>13.966</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:21:16</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>13.844</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:23:18</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:25:20</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>15.132</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:27:22</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>16.205</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:29:24</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>13.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:31:26</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>14.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:33:28</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>15.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:35:29</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:37:31</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>21.066</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:39:34</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>17.085</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:41:36</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>22.658</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:43:37</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>16.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:45:39</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>15.052</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:47:41</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:49:43</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>13.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:51:45</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>16.086</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:53:47</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>17.127</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:55:49</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>15.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:57:51</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>13.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>04/24/2021 08:59:52</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:01:55</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:05:58</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>21.662</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:08:01</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>16.845</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:10:03</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>19.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:12:06</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>21.176</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:14:08</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>17.067</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:14:09</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>15.927</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:16:11</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>16.644</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:16:12</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>17.387</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:18:14</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>16.258</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:20:17</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>16.409</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:20:18</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>16.088</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:22:20</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>13.876</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:22:21</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:24:23</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>13.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:24:23</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>15.518</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:26:26</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>14.278</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:30:30</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>14.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:32:32</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>13.984</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:34:34</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>15.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:36:36</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>15.099</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:38:37</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>23.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:40:39</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>21.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:42:41</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>17.917</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:44:43</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:46:45</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>17.262</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:48:48</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>17.533</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:48:49</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>12.265</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:50:51</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>18.863</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:50:52</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>19.849</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:52:54</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>18.631</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:52:55</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>12.913</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:54:57</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>16.141</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:54:57</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>19.071</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:56:59</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:57:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>19.247</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:59:02</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>13.786</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>04/24/2021 09:59:03</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>15.136</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:01:05</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>12.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:01:06</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>14.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:03:09</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>12.844</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:07:12</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>12.868</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:09:14</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>13.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:11:17</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>14.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:13:18</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>19.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:15:20</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>14.098</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:19:24</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:21:26</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>14.278</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:23:28</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>15.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:25:30</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>13.834</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:27:32</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>13.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:29:34</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>13.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:31:37</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>17.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:33:38</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>20.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:35:40</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>19.617</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:37:42</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>37.954</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:39:45</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>20.326</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:41:48</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>19.407</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:41:49</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>17.893</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:43:52</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>18.575</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:45:54</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>14.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:45:55</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>16.933</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:47:57</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>17.832</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:47:58</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>20.457</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:50:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:50:01</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:52:02</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>14.866</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:52:03</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>14.878</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:54:05</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>16.418</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:54:06</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:56:09</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>15.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>04/24/2021 10:58:11</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>16.107</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:00:13</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>19.458</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:02:15</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>14.263</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:04:17</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>14.932</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:06:19</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>22.176</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:08:21</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>18.768</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:10:23</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>15.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:12:25</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>16.561</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:14:28</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>14.193</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:16:30</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>18.351</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:18:32</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>15.305</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:20:33</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>19.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:22:36</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:24:38</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:26:39</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>13.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:28:41</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>17.749</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:30:43</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>13.048</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:32:45</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>12.646</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:34:47</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:36:49</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>22.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:38:51</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>14.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:40:54</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>20.325</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:42:56</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>13.918</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:44:58</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>14.692</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:47:01</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>14.782</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:47:02</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>13.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:49:04</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>14.776</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:49:05</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>13.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:51:07</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:51:08</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>14.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:53:11</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>13.768</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:55:14</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>12.808</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:57:17</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>17.471</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>04/24/2021 11:59:19</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>12.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:01:21</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>15.064</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:03:23</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>13.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:05:25</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>16.929</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:07:27</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>13.546</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:09:29</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>13.636</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:11:31</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>14.692</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:13:33</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>11.617</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:15:35</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>22.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:17:37</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>18.107</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:19:39</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>13.965</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:21:42</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>18.645</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:23:44</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>22.326</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:25:47</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>17.691</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:25:48</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>20.127</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:27:50</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>13.853</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:27:51</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:29:53</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:29:54</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:31:57</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:31:58</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>13.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:34:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>12.424</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:34:01</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>17.836</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:36:05</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>13.958</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:40:08</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:42:11</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>13.844</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:44:14</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>13.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:46:16</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>14.098</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:48:19</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>13.161</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:50:21</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>19.938</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:52:23</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>20.176</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:54:25</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>22.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:56:28</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>18.389</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:58:31</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>20.516</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>04/24/2021 12:58:32</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>18.575</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:00:34</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>20.121</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:00:35</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>17.809</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:02:38</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>18.065</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:02:40</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>15.731</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:04:42</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>17.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:04:43</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>22.783</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:06:46</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>13.918</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:06:46</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>14.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:08:48</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>17.726</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:08:49</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>14.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:10:52</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>13.654</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:10:53</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>17.818</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:12:57</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>13.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:15:42</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>13.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:20:04</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:22:12</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>15.686</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:23:02</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>13.698</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:23:49</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>13.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:24:43</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>13.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:25:23</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>13.862</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>04/24/2021 13:27:59</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>13.736</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,3150 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:54:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:56:02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13.646</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04/25/2021 16:58:07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13.466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:00:10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15.213</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:02:13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:04:06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:04:16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:06:09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:06:20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:08:14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:08:26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:10:18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:10:31</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:12:23</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15.314</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:12:37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16.228</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:14:28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:14:43</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:16:33</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:16:48</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:18:38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15.438</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:18:53</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15.438</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:20:43</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>13.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:20:59</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>13.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:22:49</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13.934</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:23:08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:24:59</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>15.057</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:25:16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>15.057</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:27:06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15.866</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:27:23</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>15.866</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:29:14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:31:21</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14.673</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:33:27</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:35:33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:37:43</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:39:50</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>13.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:41:57</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13.456</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:44:04</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>15.946</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:46:09</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>13.916</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:48:14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19.649</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:50:21</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:52:33</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16.085</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:54:47</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21.052</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:57:08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04/25/2021 17:59:25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18.266</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:01:44</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:04:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16.051</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:04:01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>13.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:06:09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>13.522</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:06:10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:08:16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:08:17</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>13.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:10:31</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:14:54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>14.766</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:17:07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:19:16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18.708</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:21:24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:23:33</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>18.672</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:26:02</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>18.786</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:26:03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>15.248</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:28:09</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:28:10</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:30:15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>21.228</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:30:15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:32:23</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14.594</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:32:24</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>17.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:34:34</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>17.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:34:36</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:36:48</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15.848</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:36:49</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:38:57</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>13.792</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:38:57</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:41:04</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:41:05</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>14.254</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:43:12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14.746</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:51:43</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>19.908</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:53:55</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:56:01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>21.318</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04/25/2021 18:58:13</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:02:29</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>21.128</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:02:30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>17.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:04:37</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>18.302</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:04:38</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:06:45</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>17.462</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:06:46</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>14.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:08:53</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:08:54</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16.154</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:11:01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:11:02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:13:10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>14.212</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:17:24</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:19:31</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>13.826</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:21:38</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>13.934</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:23:45</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>19.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:25:53</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>18.402</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:28:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>13.966</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:30:07</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>13.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:32:14</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:34:23</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>13.868</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:36:31</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>13.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:38:41</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>14.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:40:49</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>13.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:42:55</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:45:03</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>13.742</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:47:10</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>13.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:49:17</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:51:24</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:53:31</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>14.697</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:55:38</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>21.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:57:46</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04/25/2021 19:59:53</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>17.706</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:02:01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>22.174</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:04:08</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:06:18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:06:18</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:08:28</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>14.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:08:29</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>14.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:10:37</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:10:37</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>14.254</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:12:46</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:14:54</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>17.274</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:19:09</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:21:18</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:23:26</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>20.852</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:25:34</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>19.166</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:27:43</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:27:44</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>17.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:29:52</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>12.898</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:29:52</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>18.024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:32:00</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>20.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:32:01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13.464</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:34:10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>14.567</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:34:11</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>14.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:36:20</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:36:21</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>13.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:38:30</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>14.188</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:38:31</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>16.474</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:40:39</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13.958</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:44:56</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13.976</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:47:05</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:49:14</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:51:23</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:53:32</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>21.262</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:55:41</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>21.674</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>04/25/2021 20:57:51</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>16.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:00:00</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:02:10</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>24.789</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:02:11</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14.977</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:04:19</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>15.082</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:04:21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>15.402</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:06:30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>14.108</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:06:31</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18.714</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:08:40</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>15.402</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:10:50</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>15.318</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:15:08</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>15.802</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:17:17</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15.406</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:19:26</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>28.057</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:21:35</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>15.952</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:23:47</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>28.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:26:13</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:28:32</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>14.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:30:50</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13.946</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:33:09</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16.548</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:35:28</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>14.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:38:02</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:40:33</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>13.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:43:01</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>12.924</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:45:33</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13.668</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:48:04</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>19.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:50:26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>19.376</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:52:51</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>19.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:55:15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16.528</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:57:40</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>12.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>04/25/2021 21:57:41</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>9.178</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:00:05</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:00:06</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>17.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:02:44</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>14.074</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:02:45</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>14.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:05:05</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>14.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:05:05</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:07:27</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:09:46</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>16.312</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:14:35</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:16:53</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:19:18</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>26.565</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:21:46</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>22.408</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:24:13</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:24:14</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:26:39</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>13.374</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:26:40</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:28:52</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>19.986</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:28:53</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>14.468</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:31:06</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>12.942</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:33:18</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:33:19</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>14.344</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:35:32</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>55.502</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:35:32</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:37:52</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>15.382</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:37:53</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>15.908</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:40:16</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>14.391</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:44:55</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:47:15</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>15.254</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:49:27</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>19.488</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:51:38</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>22.571</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:53:49</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>13.792</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:56:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>04/25/2021 22:58:11</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>13.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:00:22</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:02:33</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>14.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:04:44</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>19.996</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:06:56</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>14.078</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:11:43</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:11:44</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>14.038</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:14:09</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13.726</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:14:10</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>15.386</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:16:29</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:16:30</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>13.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:18:51</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>13.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:18:52</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>15.832</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:21:13</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>13.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:23:35</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>13.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:25:55</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>13.654</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:28:17</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>18.074</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:30:38</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>14.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:33:02</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>14.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:35:15</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:37:27</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:39:41</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:42:08</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>17.314</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:44:33</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>15.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:47:03</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>19.944</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:49:46</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>22.578</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:52:30</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>22.411</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:52:31</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:55:16</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>17.948</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:55:17</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:57:49</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>19.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>04/25/2021 23:57:51</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>14.104</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:00:33</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>13.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:00:34</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>13.882</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:03:22</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:08:41</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>14.114</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:11:31</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:14:17</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:16:56</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>25.202</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:19:50</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>17.772</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:22:34</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:22:35</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>15.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:25:12</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>18.088</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:25:13</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>17.454</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:27:51</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>14.868</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:27:52</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>21.098</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:30:24</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:30:24</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:33:01</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>15.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:33:02</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>14.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:35:36</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>18.149</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:40:39</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>13.232</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:43:09</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:48:13</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>14.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:53:18</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>15.424</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:55:47</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>15.074</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>04/26/2021 00:58:32</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>16.162</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3591,6 +3591,66 @@
         </is>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:41:16</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>17.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:43:06</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>18.723</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:51:30</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>14.694</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:54:44</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>04/27/2021 18:57:56</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>13.594</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3651,6 +3651,30 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>04/27/2021 19:01:43</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>13.636</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>04/27/2021 19:03:50</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>15.799</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,521 +438,331 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/04/2021 00:02:33</t>
+          <t>05/05/2021 01:39:46</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.08</v>
+        <v>15.666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/04/2021 00:03:34</t>
+          <t>05/05/2021 01:40:48</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.571</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/04/2021 00:04:36</t>
+          <t>05/05/2021 01:41:50</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.571</v>
+        <v>15.114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/04/2021 00:05:38</t>
+          <t>05/05/2021 01:42:55</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.731</v>
+        <v>15.114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/04/2021 00:06:41</t>
+          <t>05/05/2021 01:44:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.731</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/04/2021 00:07:40</t>
+          <t>05/05/2021 01:45:04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.418</v>
+        <v>14.798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/04/2021 00:08:43</t>
+          <t>05/05/2021 01:46:09</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.465</v>
+        <v>18.395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/04/2021 00:09:46</t>
+          <t>05/05/2021 01:51:31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.465</v>
+        <v>38.542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/04/2021 00:10:51</t>
+          <t>05/05/2021 01:52:37</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.297</v>
+        <v>19.865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/04/2021 00:11:57</t>
+          <t>05/05/2021 01:53:43</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.086</v>
+        <v>37.938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/04/2021 00:17:15</t>
+          <t>05/05/2021 01:54:50</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.36199999999999</v>
+        <v>19.284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/04/2021 00:18:24</t>
+          <t>05/05/2021 02:00:08</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.998</v>
+        <v>18.601</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/04/2021 00:19:32</t>
+          <t>05/05/2021 02:01:17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.998</v>
+        <v>18.398</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/04/2021 00:36:09</t>
+          <t>05/05/2021 02:06:33</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.71</v>
+        <v>105687.46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05/04/2021 00:38:19</t>
+          <t>05/05/2021 02:07:38</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.743</v>
+        <v>28.264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05/04/2021 00:43:40</t>
+          <t>05/05/2021 02:12:49</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.718</v>
+        <v>14.396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05/04/2021 00:44:48</t>
+          <t>05/05/2021 02:13:53</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.718</v>
+        <v>14.638</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/04/2021 00:50:03</t>
+          <t>05/05/2021 02:14:57</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.218</v>
+        <v>16.392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05/04/2021 00:51:11</t>
+          <t>05/05/2021 02:16:00</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.298</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05/04/2021 00:52:20</t>
+          <t>05/05/2021 02:17:04</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.508</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05/04/2021 00:53:29</t>
+          <t>05/05/2021 02:18:07</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.218</v>
+        <v>16.332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05/04/2021 00:54:38</t>
+          <t>05/05/2021 02:19:12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.128</v>
+        <v>15.668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05/04/2021 00:55:46</t>
+          <t>05/05/2021 02:20:16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.404</v>
+        <v>12.683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05/04/2021 00:56:56</t>
+          <t>05/05/2021 02:21:21</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.404</v>
+        <v>19.073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>05/04/2021 00:58:08</t>
+          <t>05/05/2021 02:21:31</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.954</v>
+        <v>19.073</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05/04/2021 00:59:19</t>
+          <t>05/05/2021 02:21:40</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.086</v>
+        <v>19.073</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05/04/2021 01:00:29</t>
+          <t>05/05/2021 02:21:48</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.262</v>
+        <v>19.073</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05/04/2021 01:01:42</t>
+          <t>05/05/2021 02:21:58</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.262</v>
+        <v>20.152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05/04/2021 01:02:51</t>
+          <t>05/05/2021 02:22:08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.19</v>
+        <v>20.152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05/04/2021 01:04:06</t>
+          <t>05/05/2021 02:22:18</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.02</v>
+        <v>20.152</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05/04/2021 01:05:18</t>
+          <t>05/05/2021 02:22:30</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.773</v>
+        <v>20.152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05/04/2021 01:06:29</t>
+          <t>05/05/2021 02:22:40</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>15.728</v>
+        <v>20.152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05/04/2021 01:07:40</t>
+          <t>05/05/2021 02:22:49</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.392</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:08:53</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>14.392</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:12:26</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>17.144</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:12:53</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>17.144</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:14:17</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>14.615</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:16:06</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>15.224</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:17:23</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:18:35</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:19:47</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>13.504</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:21:01</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>15.006</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:22:16</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>13.612</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:25:09</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>202.381</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:26:26</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>24.282</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:31:48</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:37:10</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>14.434</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:39:40</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>14.104</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:49:48</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>14.214</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:50:44</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>14.084</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:54:54</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>594715.41</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>05/04/2021 01:56:09</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>14.07</v>
+        <v>20.152</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,331 +438,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/05/2021 01:39:46</t>
+          <t>05/06/2021 02:53:58</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.666</v>
+        <v>13.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/05/2021 01:40:48</t>
+          <t>05/06/2021 02:54:59</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.31</v>
+        <v>13.892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/05/2021 01:41:50</t>
+          <t>05/06/2021 02:56:01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.114</v>
+        <v>13.612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/05/2021 01:42:55</t>
+          <t>05/06/2021 02:57:06</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.114</v>
+        <v>15.116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/05/2021 01:44:00</t>
+          <t>05/06/2021 02:58:09</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.95</v>
+        <v>13.892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/05/2021 01:45:04</t>
+          <t>05/06/2021 02:59:13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.798</v>
+        <v>13.568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/05/2021 01:46:09</t>
+          <t>05/06/2021 03:00:17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.395</v>
+        <v>13.702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/05/2021 01:51:31</t>
+          <t>05/06/2021 03:01:22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.542</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/05/2021 01:52:37</t>
+          <t>05/06/2021 03:02:25</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.865</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/05/2021 01:53:43</t>
+          <t>05/06/2021 03:03:28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.938</v>
+        <v>16.778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/05/2021 01:54:50</t>
+          <t>05/06/2021 03:04:35</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.284</v>
+        <v>13.834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/05/2021 02:00:08</t>
+          <t>05/06/2021 03:05:39</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.601</v>
+        <v>13.844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/05/2021 02:01:17</t>
+          <t>05/06/2021 03:08:47</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.398</v>
+        <v>17.571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/05/2021 02:06:33</t>
+          <t>05/06/2021 03:09:51</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105687.46</v>
+        <v>19.424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05/05/2021 02:07:38</t>
+          <t>05/06/2021 03:15:11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.264</v>
+        <v>34.216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05/05/2021 02:12:49</t>
+          <t>05/06/2021 03:16:20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.396</v>
+        <v>34.436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05/05/2021 02:13:53</t>
+          <t>05/06/2021 03:17:25</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.638</v>
+        <v>37.837</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/05/2021 02:14:57</t>
+          <t>05/06/2021 03:18:30</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.392</v>
+        <v>35.561</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05/05/2021 02:16:00</t>
+          <t>05/06/2021 03:19:36</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.32</v>
+        <v>28.251</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05/05/2021 02:17:04</t>
+          <t>05/06/2021 03:24:48</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.09</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05/05/2021 02:18:07</t>
+          <t>05/06/2021 03:25:55</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.332</v>
+        <v>13.622</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05/05/2021 02:19:12</t>
+          <t>05/06/2021 03:27:05</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.668</v>
+        <v>13.532</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05/05/2021 02:20:16</t>
+          <t>05/06/2021 03:28:15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.683</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:21</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>19.073</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:31</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>19.073</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:40</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>19.073</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:48</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>19.073</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:58</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>20.152</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:08</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>20.152</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:18</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>20.152</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:30</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>20.152</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:40</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>20.152</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:49</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>20.152</v>
+        <v>16.012</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,66 @@
         <v>16.012</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:29:35</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13.636</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:30:50</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13.546</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:32:00</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13.546</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:33:09</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14.024</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:34:20</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13.532</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05/06/2021 03:35:30</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13.646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,291 +438,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/06/2021 02:53:58</t>
+          <t>05/07/2021 03:17:51</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.676</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05/06/2021 02:54:59</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>13.892</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/06/2021 02:56:01</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>13.612</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/06/2021 02:57:06</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15.116</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/06/2021 02:58:09</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.892</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/06/2021 02:59:13</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>13.568</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:00:17</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.702</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:01:22</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>13.48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:02:25</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>16.49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:03:28</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>16.778</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:04:35</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.834</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:05:39</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.844</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:08:47</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>17.571</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:09:51</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>19.424</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:15:11</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>34.216</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:16:20</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>34.436</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:17:25</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>37.837</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:18:30</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>35.561</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:19:36</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>28.251</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:24:48</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:25:55</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>13.622</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:27:05</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>13.532</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:28:15</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>16.012</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:29:35</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>13.636</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:30:50</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>13.546</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:32:00</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>13.546</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:33:09</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>14.024</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:34:20</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>13.532</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>05/06/2021 03:35:30</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>13.646</v>
+        <v>14.084</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -438,11 +438,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/07/2021 03:17:51</t>
+          <t>05/08/2021 02:45:17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.084</v>
+        <v>14.368</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/netin.xlsx
+++ b/dataset/netin.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,11 +438,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/08/2021 02:45:17</t>
+          <t>05/08/2021 18:28:07</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.368</v>
+        <v>13.744</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:29:08</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:30:10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13.598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:31:13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:32:16</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13.424</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:33:21</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19.964</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:34:24</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>19.964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:35:28</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>14.024</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:36:31</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15.742</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:37:34</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:38:38</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15.788</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:39:41</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15.626</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:40:47</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15.626</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:41:52</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:42:57</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15.279</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:44:05</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13.852</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:45:10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13.744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:46:16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:47:20</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14.157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:48:26</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13.744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:49:31</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:50:35</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:51:41</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15.559</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:52:46</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15.559</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:53:50</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14.222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:54:55</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13.754</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:56:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13.784</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:57:07</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>73.96599999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:58:12</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>72.568</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05/08/2021 18:59:16</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21.713</v>
       </c>
     </row>
   </sheetData>
